--- a/data/result/实验结果1_0_0.xlsx
+++ b/data/result/实验结果1_0_0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackYip/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackYip/Workspace/python/QA_Mining/data/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -136,23 +136,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -160,6 +190,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:D30"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="minsup" dataDxfId="5"/>
+    <tableColumn id="2" name="minlen" dataDxfId="4"/>
+    <tableColumn id="3" name="P" dataDxfId="3"/>
+    <tableColumn id="4" name="R" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,432 +495,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.35680751173699998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.85875706214699998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.35327635327599999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.70056497175099997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.41538461538499999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.45762711864400002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.59090909090900001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.146892655367</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.35460992907799999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.84745762711899997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>40</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.34782608695700001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.67796610169500005</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>40</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.42774566473999998</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.41807909604499999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>40</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>7.9096045197699999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>50</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.35629453681700002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.84745762711899997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>50</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.34626865671599999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.65536723163800004</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>50</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.41935483871000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.36723163841799999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>50</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>7.9096045197699999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>60</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.35629453681700002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.84745762711899997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>60</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.35060975609799999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.64971751412400003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>60</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.428571428571</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.33898305084699998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>60</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>5.64971751412E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>70</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.35885167464099998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.84745762711899997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>70</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>0.35493827160500002</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0.64971751412400003</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>70</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.4453125</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.32203389830500001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>70</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>0.75</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>3.3898305084700001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>80</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.35885167464099998</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.84745762711899997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>80</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.35782747603800003</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0.63276836158200001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>80</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.46153846153799999</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.30508474576299999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>90</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.35971223021600002</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.84745762711899997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>90</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.36156351791500002</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.627118644068</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>90</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0.468468468468</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0.29378531073399999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>100</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.35971223021600002</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.84745762711899997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>100</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>0.37074829931999997</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.61581920903999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>100</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0.46728971962600002</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.28248587570599998</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -886,5 +929,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/result/实验结果1_0_0.xlsx
+++ b/data/result/实验结果1_0_0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
+    <sheet name="简单的问句探测方法" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,12 +82,56 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MaxSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern_mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +165,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +190,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -144,8 +198,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,17 +217,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="黑体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -193,15 +328,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="minsup" dataDxfId="5"/>
-    <tableColumn id="2" name="minlen" dataDxfId="4"/>
-    <tableColumn id="3" name="P" dataDxfId="3"/>
-    <tableColumn id="4" name="R" dataDxfId="2"/>
+    <tableColumn id="1" name="minsup" dataDxfId="13"/>
+    <tableColumn id="2" name="minlen" dataDxfId="12"/>
+    <tableColumn id="3" name="P" dataDxfId="11"/>
+    <tableColumn id="4" name="R" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H6"/>
+  <tableColumns count="8">
+    <tableColumn id="2" name="pattern_mine" dataDxfId="7"/>
+    <tableColumn id="3" name="minsup" dataDxfId="6"/>
+    <tableColumn id="4" name="precision" dataDxfId="5"/>
+    <tableColumn id="5" name="recall" dataDxfId="4"/>
+    <tableColumn id="6" name="t" dataDxfId="3"/>
+    <tableColumn id="7" name="s" dataDxfId="2"/>
+    <tableColumn id="8" name="c" dataDxfId="1"/>
+    <tableColumn id="9" name="g" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -468,25 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:D30"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,12 +1052,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -933,4 +1070,183 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.4078</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>512</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.220703125E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/result/实验结果1_0_0.xlsx
+++ b/data/result/实验结果1_0_0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="简单的问句探测方法" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,8 +208,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,8 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="33">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -240,6 +259,14 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -248,6 +275,14 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -300,9 +335,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -353,7 +390,7 @@
     <tableColumn id="8" name="c" dataDxfId="1"/>
     <tableColumn id="9" name="g" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -622,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,10 +689,10 @@
       <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>0.35680751173699998</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>0.85875706214699998</v>
       </c>
     </row>
@@ -666,10 +703,10 @@
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>0.35327635327599999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>0.70056497175099997</v>
       </c>
     </row>
@@ -680,10 +717,10 @@
       <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>0.41538461538499999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>0.45762711864400002</v>
       </c>
     </row>
@@ -694,10 +731,10 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>0.59090909090900001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>0.146892655367</v>
       </c>
     </row>
@@ -708,10 +745,10 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>0.35460992907799999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>0.84745762711899997</v>
       </c>
     </row>
@@ -722,10 +759,10 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>0.34782608695700001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>0.67796610169500005</v>
       </c>
     </row>
@@ -736,10 +773,10 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>0.42774566473999998</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>0.41807909604499999</v>
       </c>
     </row>
@@ -750,10 +787,10 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>7.9096045197699999E-2</v>
       </c>
     </row>
@@ -764,10 +801,10 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>0.35629453681700002</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>0.84745762711899997</v>
       </c>
     </row>
@@ -778,10 +815,10 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>0.34626865671599999</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>0.65536723163800004</v>
       </c>
     </row>
@@ -792,10 +829,10 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>0.41935483871000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>0.36723163841799999</v>
       </c>
     </row>
@@ -806,10 +843,10 @@
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>7.9096045197699999E-2</v>
       </c>
     </row>
@@ -820,24 +857,24 @@
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>0.35629453681700002</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>0.84745762711899997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>60</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>0.35060975609799999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>0.64971751412400003</v>
       </c>
     </row>
@@ -848,10 +885,10 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>0.428571428571</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>0.33898305084699998</v>
       </c>
     </row>
@@ -862,10 +899,10 @@
       <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>5.64971751412E-2</v>
       </c>
     </row>
@@ -876,10 +913,10 @@
       <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>0.35885167464099998</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>0.84745762711899997</v>
       </c>
     </row>
@@ -890,10 +927,10 @@
       <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>0.35493827160500002</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>0.64971751412400003</v>
       </c>
     </row>
@@ -904,10 +941,10 @@
       <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>0.4453125</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>0.32203389830500001</v>
       </c>
     </row>
@@ -918,10 +955,10 @@
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>0.75</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>3.3898305084700001E-2</v>
       </c>
     </row>
@@ -932,10 +969,10 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>0.35885167464099998</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <v>0.84745762711899997</v>
       </c>
     </row>
@@ -946,10 +983,10 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>0.35782747603800003</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <v>0.63276836158200001</v>
       </c>
     </row>
@@ -960,10 +997,10 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>0.46153846153799999</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>0.30508474576299999</v>
       </c>
     </row>
@@ -974,10 +1011,10 @@
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>0.35971223021600002</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <v>0.84745762711899997</v>
       </c>
     </row>
@@ -988,10 +1025,10 @@
       <c r="B26" s="1">
         <v>4</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <v>0.36156351791500002</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <v>0.627118644068</v>
       </c>
     </row>
@@ -1002,10 +1039,10 @@
       <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>0.468468468468</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <v>0.29378531073399999</v>
       </c>
     </row>
@@ -1016,10 +1053,10 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>0.35971223021600002</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <v>0.84745762711899997</v>
       </c>
     </row>
@@ -1030,10 +1067,10 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>0.37074829931999997</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>0.61581920903999998</v>
       </c>
     </row>
@@ -1044,20 +1081,20 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>0.46728971962600002</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <v>0.28248587570599998</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1076,14 +1113,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
